--- a/tweets_xbox_201809060335.xlsx
+++ b/tweets_xbox_201809060335.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroramos/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Perri\Desktop\Ciência dos Dados\projeto2-CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BEB105-F7D8-4F4D-8E3D-F9F5D7DAA065}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14500"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1649,7 +1650,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1719,6 +1720,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2010,20 +2014,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2031,1504 +2035,2401 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="105" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="135" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="105" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="120" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="105" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="150" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="105" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="165" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" ht="120" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="120" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" ht="180" x14ac:dyDescent="0.2">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" ht="105" x14ac:dyDescent="0.2">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" ht="105" x14ac:dyDescent="0.2">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" ht="120" x14ac:dyDescent="0.2">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" ht="165" x14ac:dyDescent="0.2">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" ht="105" x14ac:dyDescent="0.2">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" ht="165" x14ac:dyDescent="0.2">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>291</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3537,20 +4438,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>292</v>
       </c>
@@ -3558,1002 +4459,1002 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="210" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="135" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="120" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="120" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="165" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="120" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="120" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="165" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="165" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>480</v>
       </c>

--- a/tweets_xbox_201809060335.xlsx
+++ b/tweets_xbox_201809060335.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Perri\Desktop\Ciência dos Dados\projeto2-CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BEB105-F7D8-4F4D-8E3D-F9F5D7DAA065}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0600495-324E-4DF9-9F71-E6F33717F309}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2017,7 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+    <sheetView topLeftCell="A296" workbookViewId="0">
       <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
@@ -4441,8 +4441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4463,1000 +4463,1600 @@
       <c r="A2" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>294</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>295</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>298</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>300</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>302</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>305</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>306</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>480</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tweets_xbox_201809060335.xlsx
+++ b/tweets_xbox_201809060335.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Perri\Desktop\Ciência dos Dados\projeto2-CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroramos/Desktop/INSPER/Engenharia/2º Semestre/Ciência dos Dados/projeto2-CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0600495-324E-4DF9-9F71-E6F33717F309}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1650,7 +1649,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2014,20 +2013,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2034,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2051,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2059,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2075,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2115,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2131,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2139,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2147,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2155,15 +2154,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2171,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2179,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2187,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2219,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2227,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2259,15 +2258,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2275,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2283,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2291,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2299,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -2331,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2347,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2355,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -2379,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -2387,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -2411,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2435,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -2467,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -2491,15 +2490,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -2507,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -2523,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -2531,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -2547,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -2555,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -2563,15 +2562,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -2579,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
@@ -2619,15 +2618,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
@@ -2635,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -2643,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
@@ -2675,15 +2674,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -2691,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
@@ -2707,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
@@ -2715,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
@@ -2723,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
@@ -2731,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
@@ -2739,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
@@ -2747,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
@@ -2763,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
@@ -2771,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -2779,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
@@ -2787,15 +2786,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -2811,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
@@ -2819,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
@@ -2835,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
@@ -2851,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
@@ -2859,15 +2858,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
@@ -2875,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
@@ -2883,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
@@ -2891,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>89</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>107</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>108</v>
       </c>
@@ -2915,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>109</v>
       </c>
@@ -2923,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>89</v>
       </c>
@@ -2931,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>110</v>
       </c>
@@ -2939,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>111</v>
       </c>
@@ -2947,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>112</v>
       </c>
@@ -2955,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>113</v>
       </c>
@@ -2963,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>114</v>
       </c>
@@ -2971,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>115</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>116</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>117</v>
       </c>
@@ -2995,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>118</v>
       </c>
@@ -3003,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>119</v>
       </c>
@@ -3011,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>120</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>121</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>122</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>89</v>
       </c>
@@ -3043,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>123</v>
       </c>
@@ -3051,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>124</v>
       </c>
@@ -3059,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>125</v>
       </c>
@@ -3067,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>126</v>
       </c>
@@ -3075,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>127</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>128</v>
       </c>
@@ -3091,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>129</v>
       </c>
@@ -3099,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>130</v>
       </c>
@@ -3107,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>131</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>132</v>
       </c>
@@ -3123,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>133</v>
       </c>
@@ -3131,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>134</v>
       </c>
@@ -3139,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>135</v>
       </c>
@@ -3147,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>136</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>137</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>138</v>
       </c>
@@ -3171,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>139</v>
       </c>
@@ -3179,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>140</v>
       </c>
@@ -3187,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>141</v>
       </c>
@@ -3195,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>142</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>143</v>
       </c>
@@ -3211,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>144</v>
       </c>
@@ -3219,12 +3218,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>146</v>
       </c>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>147</v>
       </c>
@@ -3240,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -3248,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>149</v>
       </c>
@@ -3256,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>150</v>
       </c>
@@ -3264,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>151</v>
       </c>
@@ -3272,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>152</v>
       </c>
@@ -3280,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>153</v>
       </c>
@@ -3288,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>154</v>
       </c>
@@ -3296,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>155</v>
       </c>
@@ -3304,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>156</v>
       </c>
@@ -3312,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>157</v>
       </c>
@@ -3320,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>158</v>
       </c>
@@ -3328,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>159</v>
       </c>
@@ -3336,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>160</v>
       </c>
@@ -3344,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>161</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>162</v>
       </c>
@@ -3360,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>163</v>
       </c>
@@ -3368,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>164</v>
       </c>
@@ -3376,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>165</v>
       </c>
@@ -3384,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>166</v>
       </c>
@@ -3392,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>167</v>
       </c>
@@ -3400,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>168</v>
       </c>
@@ -3408,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>169</v>
       </c>
@@ -3416,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>170</v>
       </c>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>171</v>
       </c>
@@ -3432,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>172</v>
       </c>
@@ -3440,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>173</v>
       </c>
@@ -3448,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>174</v>
       </c>
@@ -3456,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>175</v>
       </c>
@@ -3464,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>176</v>
       </c>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>177</v>
       </c>
@@ -3480,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>178</v>
       </c>
@@ -3488,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>179</v>
       </c>
@@ -3496,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>180</v>
       </c>
@@ -3504,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>181</v>
       </c>
@@ -3512,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>182</v>
       </c>
@@ -3520,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>183</v>
       </c>
@@ -3528,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>184</v>
       </c>
@@ -3536,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>185</v>
       </c>
@@ -3544,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>186</v>
       </c>
@@ -3552,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>187</v>
       </c>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>188</v>
       </c>
@@ -3568,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>189</v>
       </c>
@@ -3576,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>190</v>
       </c>
@@ -3584,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>191</v>
       </c>
@@ -3592,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>192</v>
       </c>
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>193</v>
       </c>
@@ -3608,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>71</v>
       </c>
@@ -3616,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>194</v>
       </c>
@@ -3624,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>195</v>
       </c>
@@ -3632,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>196</v>
       </c>
@@ -3640,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>197</v>
       </c>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>198</v>
       </c>
@@ -3656,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>199</v>
       </c>
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>200</v>
       </c>
@@ -3672,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>201</v>
       </c>
@@ -3680,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>202</v>
       </c>
@@ -3688,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>203</v>
       </c>
@@ -3696,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>204</v>
       </c>
@@ -3704,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>205</v>
       </c>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>206</v>
       </c>
@@ -3720,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>207</v>
       </c>
@@ -3728,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>208</v>
       </c>
@@ -3736,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>209</v>
       </c>
@@ -3744,23 +3746,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>212</v>
       </c>
@@ -3768,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>213</v>
       </c>
@@ -3776,15 +3778,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>215</v>
       </c>
@@ -3792,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>216</v>
       </c>
@@ -3800,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>192</v>
       </c>
@@ -3808,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>217</v>
       </c>
@@ -3816,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>218</v>
       </c>
@@ -3824,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>219</v>
       </c>
@@ -3832,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>220</v>
       </c>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>221</v>
       </c>
@@ -3848,15 +3850,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>223</v>
       </c>
@@ -3864,15 +3866,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>225</v>
       </c>
@@ -3880,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>226</v>
       </c>
@@ -3888,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>227</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>228</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>229</v>
       </c>
@@ -3912,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>230</v>
       </c>
@@ -3920,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>231</v>
       </c>
@@ -3928,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>232</v>
       </c>
@@ -3936,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>233</v>
       </c>
@@ -3944,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>234</v>
       </c>
@@ -3952,15 +3954,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>236</v>
       </c>
@@ -3968,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>71</v>
       </c>
@@ -3976,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>237</v>
       </c>
@@ -3984,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>238</v>
       </c>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>239</v>
       </c>
@@ -4000,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>240</v>
       </c>
@@ -4008,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>241</v>
       </c>
@@ -4016,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>242</v>
       </c>
@@ -4024,15 +4026,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>244</v>
       </c>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>245</v>
       </c>
@@ -4048,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>246</v>
       </c>
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>247</v>
       </c>
@@ -4064,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>248</v>
       </c>
@@ -4072,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>249</v>
       </c>
@@ -4080,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>250</v>
       </c>
@@ -4088,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>251</v>
       </c>
@@ -4096,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>252</v>
       </c>
@@ -4104,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>253</v>
       </c>
@@ -4112,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>254</v>
       </c>
@@ -4120,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>255</v>
       </c>
@@ -4128,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>256</v>
       </c>
@@ -4136,7 +4138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>257</v>
       </c>
@@ -4144,15 +4146,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>259</v>
       </c>
@@ -4160,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>260</v>
       </c>
@@ -4168,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>261</v>
       </c>
@@ -4176,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>71</v>
       </c>
@@ -4184,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>262</v>
       </c>
@@ -4192,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>263</v>
       </c>
@@ -4200,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>264</v>
       </c>
@@ -4208,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>265</v>
       </c>
@@ -4216,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>266</v>
       </c>
@@ -4224,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>267</v>
       </c>
@@ -4232,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>268</v>
       </c>
@@ -4240,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>257</v>
       </c>
@@ -4248,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>269</v>
       </c>
@@ -4256,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>270</v>
       </c>
@@ -4264,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>271</v>
       </c>
@@ -4272,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>272</v>
       </c>
@@ -4280,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>273</v>
       </c>
@@ -4288,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>274</v>
       </c>
@@ -4296,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>275</v>
       </c>
@@ -4304,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>276</v>
       </c>
@@ -4312,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>277</v>
       </c>
@@ -4320,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>278</v>
       </c>
@@ -4328,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>279</v>
       </c>
@@ -4336,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>280</v>
       </c>
@@ -4344,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>281</v>
       </c>
@@ -4352,15 +4354,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>283</v>
       </c>
@@ -4368,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>284</v>
       </c>
@@ -4376,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>285</v>
       </c>
@@ -4384,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>286</v>
       </c>
@@ -4392,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>287</v>
       </c>
@@ -4400,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>288</v>
       </c>
@@ -4408,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>289</v>
       </c>
@@ -4416,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>290</v>
       </c>
@@ -4424,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>291</v>
       </c>
@@ -4438,20 +4440,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B212" sqref="B212"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>292</v>
       </c>
@@ -4459,7 +4461,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>293</v>
       </c>
@@ -4467,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="210" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>294</v>
       </c>
@@ -4475,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>295</v>
       </c>
@@ -4483,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>296</v>
       </c>
@@ -4491,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>297</v>
       </c>
@@ -4499,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>298</v>
       </c>
@@ -4507,15 +4509,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>300</v>
       </c>
@@ -4523,15 +4525,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>302</v>
       </c>
@@ -4539,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>303</v>
       </c>
@@ -4547,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>304</v>
       </c>
@@ -4555,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>305</v>
       </c>
@@ -4563,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>306</v>
       </c>
@@ -4571,7 +4573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>307</v>
       </c>
@@ -4579,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>308</v>
       </c>
@@ -4587,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>309</v>
       </c>
@@ -4595,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>310</v>
       </c>
@@ -4603,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>311</v>
       </c>
@@ -4611,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>312</v>
       </c>
@@ -4619,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>313</v>
       </c>
@@ -4627,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>314</v>
       </c>
@@ -4635,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>315</v>
       </c>
@@ -4643,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>316</v>
       </c>
@@ -4651,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>317</v>
       </c>
@@ -4659,7 +4661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>318</v>
       </c>
@@ -4667,15 +4669,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>320</v>
       </c>
@@ -4683,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>321</v>
       </c>
@@ -4691,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>322</v>
       </c>
@@ -4699,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>323</v>
       </c>
@@ -4707,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>324</v>
       </c>
@@ -4715,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>325</v>
       </c>
@@ -4723,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>326</v>
       </c>
@@ -4731,7 +4733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>327</v>
       </c>
@@ -4739,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>328</v>
       </c>
@@ -4747,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>329</v>
       </c>
@@ -4755,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>330</v>
       </c>
@@ -4763,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>331</v>
       </c>
@@ -4771,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>71</v>
       </c>
@@ -4779,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>332</v>
       </c>
@@ -4787,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>333</v>
       </c>
@@ -4795,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>257</v>
       </c>
@@ -4803,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>334</v>
       </c>
@@ -4811,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>335</v>
       </c>
@@ -4819,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>336</v>
       </c>
@@ -4827,7 +4829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>337</v>
       </c>
@@ -4835,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>338</v>
       </c>
@@ -4843,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>339</v>
       </c>
@@ -4851,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>340</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>341</v>
       </c>
@@ -4867,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>342</v>
       </c>
@@ -4875,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>343</v>
       </c>
@@ -4883,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>344</v>
       </c>
@@ -4891,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>345</v>
       </c>
@@ -4899,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>346</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>347</v>
       </c>
@@ -4915,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>348</v>
       </c>
@@ -4923,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>349</v>
       </c>
@@ -4931,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>350</v>
       </c>
@@ -4939,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>351</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>352</v>
       </c>
@@ -4955,23 +4957,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>354</v>
       </c>
       <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>355</v>
       </c>
@@ -4979,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>356</v>
       </c>
@@ -4987,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>357</v>
       </c>
@@ -4995,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>358</v>
       </c>
@@ -5003,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>359</v>
       </c>
@@ -5011,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>360</v>
       </c>
@@ -5019,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>361</v>
       </c>
@@ -5027,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>362</v>
       </c>
@@ -5035,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>363</v>
       </c>
@@ -5043,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>304</v>
       </c>
@@ -5051,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>364</v>
       </c>
@@ -5059,15 +5061,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>366</v>
       </c>
@@ -5075,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>367</v>
       </c>
@@ -5083,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>368</v>
       </c>
@@ -5091,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>369</v>
       </c>
@@ -5099,15 +5101,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>370</v>
       </c>
       <c r="B82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>371</v>
       </c>
@@ -5115,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>372</v>
       </c>
@@ -5123,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>373</v>
       </c>
@@ -5131,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>374</v>
       </c>
@@ -5139,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>375</v>
       </c>
@@ -5147,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>376</v>
       </c>
@@ -5155,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>377</v>
       </c>
@@ -5163,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>378</v>
       </c>
@@ -5171,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>379</v>
       </c>
@@ -5179,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>380</v>
       </c>
@@ -5187,23 +5189,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>382</v>
       </c>
       <c r="B94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>383</v>
       </c>
@@ -5211,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>384</v>
       </c>
@@ -5219,15 +5221,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>385</v>
       </c>
       <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>386</v>
       </c>
@@ -5235,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>387</v>
       </c>
@@ -5243,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>388</v>
       </c>
@@ -5251,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>389</v>
       </c>
@@ -5259,7 +5261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>390</v>
       </c>
@@ -5267,15 +5269,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>392</v>
       </c>
@@ -5283,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>393</v>
       </c>
@@ -5291,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>394</v>
       </c>
@@ -5299,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>395</v>
       </c>
@@ -5307,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>396</v>
       </c>
@@ -5315,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>397</v>
       </c>
@@ -5323,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>89</v>
       </c>
@@ -5331,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>398</v>
       </c>
@@ -5339,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>399</v>
       </c>
@@ -5347,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>400</v>
       </c>
@@ -5355,15 +5357,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>402</v>
       </c>
@@ -5371,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>403</v>
       </c>
@@ -5379,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>404</v>
       </c>
@@ -5387,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>405</v>
       </c>
@@ -5395,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>406</v>
       </c>
@@ -5403,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>407</v>
       </c>
@@ -5411,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>408</v>
       </c>
@@ -5419,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>409</v>
       </c>
@@ -5427,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>276</v>
       </c>
@@ -5435,7 +5437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>410</v>
       </c>
@@ -5443,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>411</v>
       </c>
@@ -5451,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>412</v>
       </c>
@@ -5459,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>413</v>
       </c>
@@ -5467,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>414</v>
       </c>
@@ -5475,15 +5477,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>415</v>
       </c>
       <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>416</v>
       </c>
@@ -5491,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>417</v>
       </c>
@@ -5499,15 +5501,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>418</v>
       </c>
       <c r="B132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>419</v>
       </c>
@@ -5515,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>420</v>
       </c>
@@ -5523,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>421</v>
       </c>
@@ -5531,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>422</v>
       </c>
@@ -5539,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>423</v>
       </c>
@@ -5547,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>424</v>
       </c>
@@ -5555,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>425</v>
       </c>
@@ -5563,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>426</v>
       </c>
@@ -5571,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>427</v>
       </c>
@@ -5579,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>428</v>
       </c>
@@ -5587,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>429</v>
       </c>
@@ -5595,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>430</v>
       </c>
@@ -5603,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>431</v>
       </c>
@@ -5611,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>432</v>
       </c>
@@ -5619,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>285</v>
       </c>
@@ -5627,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>433</v>
       </c>
@@ -5635,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>13</v>
       </c>
@@ -5643,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>434</v>
       </c>
@@ -5651,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>435</v>
       </c>
@@ -5659,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>436</v>
       </c>
@@ -5667,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>281</v>
       </c>
@@ -5675,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>437</v>
       </c>
@@ -5683,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>31</v>
       </c>
@@ -5691,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>438</v>
       </c>
@@ -5699,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>439</v>
       </c>
@@ -5707,15 +5709,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>440</v>
       </c>
       <c r="B158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>441</v>
       </c>
@@ -5723,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>442</v>
       </c>
@@ -5731,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>443</v>
       </c>
@@ -5739,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>444</v>
       </c>
@@ -5747,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>342</v>
       </c>
@@ -5755,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>445</v>
       </c>
@@ -5763,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>285</v>
       </c>
@@ -5771,15 +5773,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>446</v>
       </c>
       <c r="B166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>447</v>
       </c>
@@ -5787,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>448</v>
       </c>
@@ -5795,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>449</v>
       </c>
@@ -5803,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>450</v>
       </c>
@@ -5811,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>451</v>
       </c>
@@ -5819,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>452</v>
       </c>
@@ -5827,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>453</v>
       </c>
@@ -5835,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>454</v>
       </c>
@@ -5843,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>455</v>
       </c>
@@ -5851,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>456</v>
       </c>
@@ -5859,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>457</v>
       </c>
@@ -5867,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>458</v>
       </c>
@@ -5875,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>459</v>
       </c>
@@ -5883,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>460</v>
       </c>
@@ -5891,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>461</v>
       </c>
@@ -5899,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>462</v>
       </c>
@@ -5907,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>463</v>
       </c>
@@ -5915,15 +5917,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>465</v>
       </c>
@@ -5931,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>466</v>
       </c>
@@ -5939,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>467</v>
       </c>
@@ -5947,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>468</v>
       </c>
@@ -5955,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>469</v>
       </c>
@@ -5963,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>89</v>
       </c>
@@ -5971,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>470</v>
       </c>
@@ -5979,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>471</v>
       </c>
@@ -5987,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>472</v>
       </c>
@@ -5995,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>473</v>
       </c>
@@ -6003,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>474</v>
       </c>
@@ -6011,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>475</v>
       </c>
@@ -6019,15 +6021,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>476</v>
       </c>
       <c r="B197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>477</v>
       </c>
@@ -6035,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>478</v>
       </c>
@@ -6043,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>479</v>
       </c>
@@ -6051,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>480</v>
       </c>
